--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -1356,6 +1356,12 @@
       <c r="F7" t="s">
         <v>178</v>
       </c>
+      <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2233,6 +2239,12 @@
       </c>
       <c r="F41" t="s">
         <v>193</v>
+      </c>
+      <c r="G41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-27</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -1175,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3347,22 +3347,22 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H84" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3373,19 +3373,19 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
         <v>256</v>
@@ -3399,19 +3399,19 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G86" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H86" t="s">
         <v>256</v>
@@ -3425,19 +3425,19 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G87" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H87" t="s">
         <v>256</v>
@@ -3451,19 +3451,19 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H88" t="s">
         <v>256</v>
@@ -3477,19 +3477,19 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="G89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
         <v>256</v>
@@ -3503,22 +3503,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H90" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3529,16 +3529,16 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="G91" t="s">
         <v>264</v>
@@ -3555,22 +3555,22 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G92" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H92" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3581,22 +3581,22 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="F93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H93" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3607,22 +3607,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="H94" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3633,19 +3633,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="F95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
         <v>256</v>
@@ -3659,19 +3659,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G96" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="H96" t="s">
         <v>256</v>
@@ -3685,22 +3685,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="H97" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3711,22 +3711,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="H98" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3737,19 +3737,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="H99" t="s">
         <v>256</v>
@@ -3763,19 +3763,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="H100" t="s">
         <v>256</v>
@@ -3789,47 +3789,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s">
-        <v>251</v>
-      </c>
-      <c r="H102" t="s">
         <v>256</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220427_110635.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="267">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>N.A.P</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>JYP</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -1282,7 +1279,7 @@
         <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1334,7 +1331,7 @@
         <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1360,7 +1357,7 @@
         <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1412,7 +1409,7 @@
         <v>234</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1464,7 +1461,7 @@
         <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1490,7 +1487,7 @@
         <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1516,7 +1513,7 @@
         <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1542,7 +1539,7 @@
         <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1568,7 +1565,7 @@
         <v>239</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1594,7 +1591,7 @@
         <v>240</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1620,7 +1617,7 @@
         <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1646,7 +1643,7 @@
         <v>242</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1672,7 +1669,7 @@
         <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1698,7 +1695,7 @@
         <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1724,7 +1721,7 @@
         <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1750,7 +1747,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1854,7 +1851,7 @@
         <v>247</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1880,7 +1877,7 @@
         <v>242</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1906,7 +1903,7 @@
         <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1958,7 +1955,7 @@
         <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1984,7 +1981,7 @@
         <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2010,7 +2007,7 @@
         <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2036,7 +2033,7 @@
         <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2114,7 +2111,7 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2140,7 +2137,7 @@
         <v>250</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2192,7 +2189,7 @@
         <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2244,7 +2241,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2270,7 +2267,7 @@
         <v>252</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2296,7 +2293,7 @@
         <v>253</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2400,7 +2397,7 @@
         <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2426,7 +2423,7 @@
         <v>242</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2452,7 +2449,7 @@
         <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2478,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2504,7 +2501,7 @@
         <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2530,7 +2527,7 @@
         <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2556,7 +2553,7 @@
         <v>242</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2608,7 +2605,7 @@
         <v>248</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2735,10 +2732,10 @@
         <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H60" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2764,7 +2761,7 @@
         <v>239</v>
       </c>
       <c r="H61" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2790,7 +2787,7 @@
         <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2816,7 +2813,7 @@
         <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2842,7 +2839,7 @@
         <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2868,7 +2865,7 @@
         <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2894,7 +2891,7 @@
         <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2917,10 +2914,10 @@
         <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2946,7 +2943,7 @@
         <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2998,7 +2995,7 @@
         <v>238</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3050,7 +3047,7 @@
         <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3099,10 +3096,10 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H74" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3128,7 +3125,7 @@
         <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3154,7 +3151,7 @@
         <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3180,7 +3177,7 @@
         <v>242</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3206,7 +3203,7 @@
         <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3229,10 +3226,10 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3255,10 +3252,10 @@
         <v>212</v>
       </c>
       <c r="G80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3281,10 +3278,10 @@
         <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3310,7 +3307,7 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3336,7 +3333,7 @@
         <v>235</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3359,10 +3356,10 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3388,7 +3385,7 @@
         <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3414,7 +3411,7 @@
         <v>245</v>
       </c>
       <c r="H86" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3440,7 +3437,7 @@
         <v>254</v>
       </c>
       <c r="H87" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3463,10 +3460,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H88" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3489,10 +3486,10 @@
         <v>219</v>
       </c>
       <c r="G89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3515,10 +3512,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3541,10 +3538,10 @@
         <v>220</v>
       </c>
       <c r="G91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3619,10 +3616,10 @@
         <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H94" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3648,7 +3645,7 @@
         <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3671,10 +3668,10 @@
         <v>225</v>
       </c>
       <c r="G96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3723,10 +3720,10 @@
         <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3752,7 +3749,7 @@
         <v>236</v>
       </c>
       <c r="H99" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3775,10 +3772,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H100" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3804,7 +3801,7 @@
         <v>251</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
